--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H2">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J2">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>449.3055935276354</v>
+        <v>534.5923596758473</v>
       </c>
       <c r="R2">
-        <v>4043.750341748718</v>
+        <v>4811.331237082625</v>
       </c>
       <c r="S2">
-        <v>0.02131608061731382</v>
+        <v>0.02844732200244415</v>
       </c>
       <c r="T2">
-        <v>0.02131608061731382</v>
+        <v>0.02844732200244415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H3">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J3">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>2019.973379048074</v>
+        <v>1963.978219873647</v>
       </c>
       <c r="R3">
-        <v>18179.76041143267</v>
+        <v>17675.80397886283</v>
       </c>
       <c r="S3">
-        <v>0.09583213744248256</v>
+        <v>0.1045093889115993</v>
       </c>
       <c r="T3">
-        <v>0.09583213744248256</v>
+        <v>0.1045093889115993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H4">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J4">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>2230.362274752469</v>
+        <v>1885.144853416976</v>
       </c>
       <c r="R4">
-        <v>20073.26047277222</v>
+        <v>16966.30368075279</v>
       </c>
       <c r="S4">
-        <v>0.1058134657998974</v>
+        <v>0.1003144203162954</v>
       </c>
       <c r="T4">
-        <v>0.1058134657998974</v>
+        <v>0.1003144203162954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H5">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J5">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>355.7338785400668</v>
+        <v>343.805024970536</v>
       </c>
       <c r="R5">
-        <v>3201.604906860601</v>
+        <v>3094.245224734824</v>
       </c>
       <c r="S5">
-        <v>0.01687682535562155</v>
+        <v>0.01829493458777739</v>
       </c>
       <c r="T5">
-        <v>0.01687682535562155</v>
+        <v>0.01829493458777739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.44205933333333</v>
+        <v>23.76450733333333</v>
       </c>
       <c r="H6">
-        <v>73.326178</v>
+        <v>71.293522</v>
       </c>
       <c r="I6">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="J6">
-        <v>0.3340995423855245</v>
+        <v>0.3430552013751479</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>1986.857256519703</v>
+        <v>1719.296911601549</v>
       </c>
       <c r="R6">
-        <v>17881.71530867733</v>
+        <v>15473.67220441394</v>
       </c>
       <c r="S6">
-        <v>0.09426103317020913</v>
+        <v>0.09148913555703166</v>
       </c>
       <c r="T6">
-        <v>0.09426103317020915</v>
+        <v>0.09148913555703167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>75.384209</v>
       </c>
       <c r="I7">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J7">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>461.9161627018977</v>
+        <v>565.2662547882996</v>
       </c>
       <c r="R7">
-        <v>4157.245464317079</v>
+        <v>5087.396293094696</v>
       </c>
       <c r="S7">
-        <v>0.02191435473858236</v>
+        <v>0.03007957535500278</v>
       </c>
       <c r="T7">
-        <v>0.02191435473858236</v>
+        <v>0.03007957535500278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>75.384209</v>
       </c>
       <c r="I8">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J8">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>2076.667563125904</v>
+        <v>2076.667563125903</v>
       </c>
       <c r="R8">
         <v>18690.00806813313</v>
       </c>
       <c r="S8">
-        <v>0.09852183865195907</v>
+        <v>0.1105059393218683</v>
       </c>
       <c r="T8">
-        <v>0.09852183865195906</v>
+        <v>0.1105059393218683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>75.384209</v>
       </c>
       <c r="I9">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J9">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>2292.961401392768</v>
+        <v>1993.310887702528</v>
       </c>
       <c r="R9">
-        <v>20636.65261253491</v>
+        <v>17939.79798932275</v>
       </c>
       <c r="S9">
-        <v>0.1087833109326088</v>
+        <v>0.106070271389278</v>
       </c>
       <c r="T9">
-        <v>0.1087833109326088</v>
+        <v>0.106070271389278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>75.384209</v>
       </c>
       <c r="I10">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J10">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>365.7181893244867</v>
+        <v>363.531904871092</v>
       </c>
       <c r="R10">
-        <v>3291.46370392038</v>
+        <v>3271.787143839828</v>
       </c>
       <c r="S10">
-        <v>0.01735050379776612</v>
+        <v>0.01934466321647484</v>
       </c>
       <c r="T10">
-        <v>0.01735050379776611</v>
+        <v>0.01934466321647484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>75.384209</v>
       </c>
       <c r="I11">
-        <v>0.3434766466349131</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="J11">
-        <v>0.343476646634913</v>
+        <v>0.3627390578207265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>2042.621977087745</v>
+        <v>1817.946905712214</v>
       </c>
       <c r="R11">
-        <v>18383.5977937897</v>
+        <v>16361.52215140993</v>
       </c>
       <c r="S11">
-        <v>0.09690663851399671</v>
+        <v>0.09673860853810261</v>
       </c>
       <c r="T11">
-        <v>0.09690663851399671</v>
+        <v>0.09673860853810262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H12">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J12">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>119.6671740259423</v>
+        <v>55.82876609016466</v>
       </c>
       <c r="R12">
-        <v>1077.004566233481</v>
+        <v>502.458894811482</v>
       </c>
       <c r="S12">
-        <v>0.00567728326895671</v>
+        <v>0.002970822267136495</v>
       </c>
       <c r="T12">
-        <v>0.00567728326895671</v>
+        <v>0.002970822267136495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H13">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J13">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>537.9957635970294</v>
+        <v>205.1029698778122</v>
       </c>
       <c r="R13">
-        <v>4841.961872373265</v>
+        <v>1845.92672890031</v>
       </c>
       <c r="S13">
-        <v>0.02552374427072924</v>
+        <v>0.01091416688279942</v>
       </c>
       <c r="T13">
-        <v>0.02552374427072924</v>
+        <v>0.01091416688279942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H14">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I14">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J14">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>594.0303310674988</v>
+        <v>196.8702117840033</v>
       </c>
       <c r="R14">
-        <v>5346.27297960749</v>
+        <v>1771.83190605603</v>
       </c>
       <c r="S14">
-        <v>0.0281821517661244</v>
+        <v>0.01047607622133763</v>
       </c>
       <c r="T14">
-        <v>0.0281821517661244</v>
+        <v>0.01047607622133763</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H15">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I15">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J15">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>94.74546625593987</v>
+        <v>35.90438578535199</v>
       </c>
       <c r="R15">
-        <v>852.7091963034587</v>
+        <v>323.139472068168</v>
       </c>
       <c r="S15">
-        <v>0.004494940694995778</v>
+        <v>0.001910584027716386</v>
       </c>
       <c r="T15">
-        <v>0.004494940694995778</v>
+        <v>0.001910584027716386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.509850333333333</v>
+        <v>2.481784666666667</v>
       </c>
       <c r="H16">
-        <v>19.529551</v>
+        <v>7.445354</v>
       </c>
       <c r="I16">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="J16">
-        <v>0.0889834194289352</v>
+        <v>0.03582607990357473</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>529.1756802178019</v>
+        <v>179.5503122707311</v>
       </c>
       <c r="R16">
-        <v>4762.581121960216</v>
+        <v>1615.95281043658</v>
       </c>
       <c r="S16">
-        <v>0.02510529942812907</v>
+        <v>0.009554430504584805</v>
       </c>
       <c r="T16">
-        <v>0.02510529942812908</v>
+        <v>0.009554430504584807</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H17">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J17">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>193.2326888838913</v>
+        <v>211.3596532305987</v>
       </c>
       <c r="R17">
-        <v>1739.094199955022</v>
+        <v>1902.236879075388</v>
       </c>
       <c r="S17">
-        <v>0.009167398833854054</v>
+        <v>0.01124710446183996</v>
       </c>
       <c r="T17">
-        <v>0.009167398833854054</v>
+        <v>0.01124710446183996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H18">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I18">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J18">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>868.7291970767144</v>
+        <v>776.4902509206154</v>
       </c>
       <c r="R18">
-        <v>7818.56277369043</v>
+        <v>6988.41225828554</v>
       </c>
       <c r="S18">
-        <v>0.04121449157601589</v>
+        <v>0.04131946108075921</v>
       </c>
       <c r="T18">
-        <v>0.04121449157601589</v>
+        <v>0.04131946108075921</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H19">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I19">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J19">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>959.2110709147088</v>
+        <v>745.3222166311132</v>
       </c>
       <c r="R19">
-        <v>8632.89963823238</v>
+        <v>6707.89994968002</v>
       </c>
       <c r="S19">
-        <v>0.04550715773668695</v>
+        <v>0.03966091304585218</v>
       </c>
       <c r="T19">
-        <v>0.04550715773668696</v>
+        <v>0.03966091304585218</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H20">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I20">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J20">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>152.9903363492509</v>
+        <v>135.928824161968</v>
       </c>
       <c r="R20">
-        <v>1376.913027143258</v>
+        <v>1223.359417457712</v>
       </c>
       <c r="S20">
-        <v>0.007258209980619805</v>
+        <v>0.007233195462602148</v>
       </c>
       <c r="T20">
-        <v>0.007258209980619805</v>
+        <v>0.007233195462602148</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.51178733333333</v>
+        <v>9.395678666666667</v>
       </c>
       <c r="H21">
-        <v>31.535362</v>
+        <v>28.187036</v>
       </c>
       <c r="I21">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="J21">
-        <v>0.1436860654753049</v>
+        <v>0.1356323693918298</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>854.4869586230948</v>
+        <v>679.7515760548578</v>
       </c>
       <c r="R21">
-        <v>7690.382627607853</v>
+        <v>6117.764184493721</v>
       </c>
       <c r="S21">
-        <v>0.04053880734812815</v>
+        <v>0.03617169534077629</v>
       </c>
       <c r="T21">
-        <v>0.04053880734812815</v>
+        <v>0.03617169534077629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H22">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I22">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J22">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>120.7039089637883</v>
+        <v>191.280481824579</v>
       </c>
       <c r="R22">
-        <v>1086.335180674095</v>
+        <v>1721.524336421211</v>
       </c>
       <c r="S22">
-        <v>0.00572646833549551</v>
+        <v>0.01017862930653535</v>
       </c>
       <c r="T22">
-        <v>0.005726468335495509</v>
+        <v>0.01017862930653535</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H23">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I23">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J23">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>542.6566825923528</v>
+        <v>702.723661105445</v>
       </c>
       <c r="R23">
-        <v>4883.910143331174</v>
+        <v>6324.512949949005</v>
       </c>
       <c r="S23">
-        <v>0.02574486888276675</v>
+        <v>0.03739411142786335</v>
       </c>
       <c r="T23">
-        <v>0.02574486888276675</v>
+        <v>0.03739411142786334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H24">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I24">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J24">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>599.1767047775055</v>
+        <v>674.5165907147849</v>
       </c>
       <c r="R24">
-        <v>5392.59034299755</v>
+        <v>6070.649316433065</v>
       </c>
       <c r="S24">
-        <v>0.02842630745541381</v>
+        <v>0.03589312549040016</v>
       </c>
       <c r="T24">
-        <v>0.02842630745541381</v>
+        <v>0.03589312549040015</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H25">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I25">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J25">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>95.56629231680054</v>
+        <v>123.015583069596</v>
       </c>
       <c r="R25">
-        <v>860.0966308512048</v>
+        <v>1107.140247626364</v>
       </c>
       <c r="S25">
-        <v>0.004533882552693845</v>
+        <v>0.006546041744818673</v>
       </c>
       <c r="T25">
-        <v>0.004533882552693844</v>
+        <v>0.006546041744818672</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.566248333333333</v>
+        <v>8.503089000000001</v>
       </c>
       <c r="H26">
-        <v>19.698745</v>
+        <v>25.509267</v>
       </c>
       <c r="I26">
-        <v>0.08975432607532249</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="J26">
-        <v>0.08975432607532248</v>
+        <v>0.122747291508721</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>533.7601865404905</v>
+        <v>615.17516234251</v>
       </c>
       <c r="R26">
-        <v>4803.841678864414</v>
+        <v>5536.576461082591</v>
       </c>
       <c r="S26">
-        <v>0.02532279884895257</v>
+        <v>0.03273538353910352</v>
       </c>
       <c r="T26">
-        <v>0.02532279884895257</v>
+        <v>0.03273538353910353</v>
       </c>
     </row>
   </sheetData>
